--- a/StructureDefinition-ncpi-drs-file.xlsx
+++ b/StructureDefinition-ncpi-drs-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T19:33:15+00:00</t>
+    <t>2024-10-30T18:30:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-file.xlsx
+++ b/StructureDefinition-ncpi-drs-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T18:30:14+00:00</t>
+    <t>2024-11-25T15:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-file.xlsx
+++ b/StructureDefinition-ncpi-drs-file.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3042" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="533">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T15:36:07+00:00</t>
+    <t>2025-01-06T15:08:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1439,25 +1439,6 @@
   <si>
     <t xml:space="preserve">Attachment {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/ncpi-drs-attachment}
 </t>
-  </si>
-  <si>
-    <t>Content in a format defined elsewhere</t>
-  </si>
-  <si>
-    <t>For referring to data content defined in other formats.</t>
-  </si>
-  <si>
-    <t>When providing a summary view (for example with Observation.value[x]) Attachment should be represented with a brief display text such as "Signed Procedure Consent".</t>
-  </si>
-  <si>
-    <t>att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}
-ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}must-be-drs-uri:attachment.url must start with ^drs://. A drs:// hostname-based URI, as defined in the DRS documentation, that tells clients how to access this object. The intent of this field is to make DRS objects self-contained, and therefore easier for clients to store and pass around.  For example, if you arrive at this DRS JSON by resolving a compact identifier-based DRS URI, the `self_uri` presents you with a hostname and properly encoded DRS ID for use in subsequent `access` endpoint calls. {$this.url.matches('^drs://.*')}</t>
-  </si>
-  <si>
-    <t>ED</t>
-  </si>
-  <si>
-    <t>ED/RP</t>
   </si>
   <si>
     <t>DocumentReference.content:DRS.attachment.id</t>
@@ -8719,20 +8700,18 @@
         <v>20</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>457</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>458</v>
+        <v>368</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>20</v>
@@ -8790,36 +8769,36 @@
         <v>93</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>461</v>
+        <v>105</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>20</v>
+        <v>370</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>462</v>
+        <v>362</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>20</v>
+        <v>371</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>463</v>
+        <v>372</v>
       </c>
       <c r="AQ55" t="s" s="2">
-        <v>20</v>
+        <v>373</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>374</v>
@@ -8940,7 +8919,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>375</v>
@@ -9063,7 +9042,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>377</v>
@@ -9186,7 +9165,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>387</v>
@@ -9309,7 +9288,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>394</v>
@@ -9434,7 +9413,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>403</v>
@@ -9559,7 +9538,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>413</v>
@@ -9684,7 +9663,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>421</v>
@@ -9809,7 +9788,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>428</v>
@@ -9932,7 +9911,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>435</v>
@@ -10055,7 +10034,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>441</v>
@@ -10178,10 +10157,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10207,13 +10186,13 @@
         <v>296</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10263,7 +10242,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10284,7 +10263,7 @@
         <v>20</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>20</v>
@@ -10301,10 +10280,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10422,10 +10401,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10545,10 +10524,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10670,10 +10649,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10696,13 +10675,13 @@
         <v>20</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10753,7 +10732,7 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10768,19 +10747,19 @@
         <v>105</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>20</v>
@@ -10791,10 +10770,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10820,13 +10799,13 @@
         <v>220</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10855,10 +10834,10 @@
         <v>238</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>20</v>
@@ -10876,7 +10855,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10894,10 +10873,10 @@
         <v>20</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>20</v>
@@ -10909,15 +10888,15 @@
         <v>20</v>
       </c>
       <c r="AQ72" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10940,13 +10919,13 @@
         <v>94</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10997,7 +10976,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11015,13 +10994,13 @@
         <v>20</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>20</v>
@@ -11030,15 +11009,15 @@
         <v>20</v>
       </c>
       <c r="AQ73" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11064,10 +11043,10 @@
         <v>220</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11097,10 +11076,10 @@
         <v>238</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>20</v>
@@ -11118,7 +11097,7 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11136,13 +11115,13 @@
         <v>20</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>20</v>
@@ -11151,15 +11130,15 @@
         <v>20</v>
       </c>
       <c r="AQ74" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11185,16 +11164,16 @@
         <v>220</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>20</v>
@@ -11222,10 +11201,10 @@
         <v>238</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>20</v>
@@ -11243,7 +11222,7 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11261,13 +11240,13 @@
         <v>20</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>20</v>
@@ -11276,15 +11255,15 @@
         <v>20</v>
       </c>
       <c r="AQ75" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11307,13 +11286,13 @@
         <v>20</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11364,7 +11343,7 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11397,15 +11376,15 @@
         <v>20</v>
       </c>
       <c r="AQ76" t="s" s="2">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11428,16 +11407,16 @@
         <v>20</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11487,7 +11466,7 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11505,13 +11484,13 @@
         <v>20</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>20</v>
@@ -11520,7 +11499,7 @@
         <v>20</v>
       </c>
       <c r="AQ77" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ncpi-drs-file.xlsx
+++ b/StructureDefinition-ncpi-drs-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T15:08:44+00:00</t>
+    <t>2025-01-10T20:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-file.xlsx
+++ b/StructureDefinition-ncpi-drs-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:53:40+00:00</t>
+    <t>2025-01-13T15:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-file.xlsx
+++ b/StructureDefinition-ncpi-drs-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T15:02:43+00:00</t>
+    <t>2025-01-13T16:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-file.xlsx
+++ b/StructureDefinition-ncpi-drs-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T16:25:54+00:00</t>
+    <t>2025-01-14T18:54:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-file.xlsx
+++ b/StructureDefinition-ncpi-drs-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T18:54:07+00:00</t>
+    <t>2025-01-27T23:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-file.xlsx
+++ b/StructureDefinition-ncpi-drs-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T23:56:01+00:00</t>
+    <t>2025-01-28T00:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-file.xlsx
+++ b/StructureDefinition-ncpi-drs-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T00:06:22+00:00</t>
+    <t>2025-02-07T15:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-file.xlsx
+++ b/StructureDefinition-ncpi-drs-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T15:45:47+00:00</t>
+    <t>2025-03-11T16:55:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-file.xlsx
+++ b/StructureDefinition-ncpi-drs-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-11T16:55:01+00:00</t>
+    <t>2025-03-24T15:08:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-file.xlsx
+++ b/StructureDefinition-ncpi-drs-file.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T15:08:47+00:00</t>
+    <t>2025-05-11T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1985,17 +1985,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="50.828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.44140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.40625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.23828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="87.05078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="74.62890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2004,29 +2004,29 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="35.69140625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="74.265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.27734375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="86.5859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="30.6015625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.66796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.96484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="74.23046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="37.78125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="52.0078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="44.5859375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="84.2265625" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="162.44921875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="72.20703125" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="139.26953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-ncpi-drs-file.xlsx
+++ b/StructureDefinition-ncpi-drs-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-11T16:39:55+00:00</t>
+    <t>2025-05-16T18:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-file.xlsx
+++ b/StructureDefinition-ncpi-drs-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-16T18:22:27+00:00</t>
+    <t>2025-05-21T14:15:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-file.xlsx
+++ b/StructureDefinition-ncpi-drs-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:15:46+00:00</t>
+    <t>2025-05-21T14:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-file.xlsx
+++ b/StructureDefinition-ncpi-drs-file.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="529">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:22:51+00:00</t>
+    <t>2025-06-13T15:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,7 +93,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Kind</t>
@@ -275,7 +275,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where(((id.exists() and ('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url)))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(uri) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -288,9 +288,6 @@
   </si>
   <si>
     <t>when describing a CDA</t>
-  </si>
-  <si>
-    <t>infrastructure.documents</t>
   </si>
   <si>
     <t>DocumentReference.id</t>
@@ -376,7 +373,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>IETF language tag</t>
+    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -434,10 +431,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -491,10 +484,6 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>DocumentReference.extension:location-access</t>
   </si>
   <si>
@@ -570,7 +559,7 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4B/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -653,7 +642,7 @@
     <t>The status of the document reference.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/document-reference-status|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/document-reference-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -686,7 +675,7 @@
     <t>Status of the underlying document.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/composition-status|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/composition-status|4.0.1</t>
   </si>
   <si>
     <t>Composition.status</t>
@@ -717,7 +706,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>https://nih-ncpi.github.io/ncpi-fhir-ig-2/ValueSet/edam-ontology-terms</t>
+    <t>https://nih-ncpi.github.io/ncpi-fhir-ig-2/ValueSet/edam-ontology-terms-vs</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -764,7 +753,7 @@
     <t>High-level kind of a clinical document at a macro level.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/doc-classcodes</t>
+    <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
   </si>
   <si>
     <t>Composition.class</t>
@@ -951,10 +940,6 @@
     <t>This element is labeled as a modifier because documents that append to other documents are incomplete on their own.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-</t>
-  </si>
-  <si>
     <t>Composition.relatesTo</t>
   </si>
   <si>
@@ -1027,7 +1012,7 @@
     <t>The type of relationship between documents.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/document-relationship-type|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/document-relationship-type|4.0.1</t>
   </si>
   <si>
     <t>Composition.relatesTo.code</t>
@@ -1131,7 +1116,7 @@
     <t>The document and format referenced. There may be multiple content element repetitions, each with a different format.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:code}
+    <t xml:space="preserve">pattern:attachment.url}
 </t>
   </si>
   <si>
@@ -1207,10 +1192,10 @@
     <t>text/plain; charset=UTF-8, image/png</t>
   </si>
   <si>
-    <t>BCP 13 (RFCs 2045, 2046, 2047, 4288, 4289 and 2049)</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/mimetypes|4.3.0</t>
+    <t>The mime type of an attachment. Any valid mime type is allowed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/mimetypes|4.0.1</t>
   </si>
   <si>
     <t>Attachment.contentType</t>
@@ -1336,7 +1321,7 @@
     <t>The calculated hash of the data using SHA-1. Represented using base64.</t>
   </si>
   <si>
-    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](http://hl7.org/fhir/R4B/provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
+    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](http://hl7.org/fhir/R4/provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
   </si>
   <si>
     <t>Included so that applications can verify that the contents of a location have not changed due to technical failures (e.g., storage rot, transport glitch, incorrect version).</t>
@@ -2010,9 +1995,9 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="63.66796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.96484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.28125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.9375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="74.23046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2274,7 +2259,7 @@
         <v>90</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="AP2" t="s" s="2">
         <v>20</v>
@@ -2285,10 +2270,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2299,28 +2284,28 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2370,13 +2355,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -2408,10 +2393,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2422,25 +2407,25 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2491,19 +2476,19 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
@@ -2529,10 +2514,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2543,28 +2528,28 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2614,19 +2599,19 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
@@ -2652,10 +2637,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2666,7 +2651,7 @@
         <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -2678,16 +2663,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2713,43 +2698,43 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>20</v>
@@ -2775,21 +2760,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -2801,16 +2786,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2860,28 +2845,28 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>20</v>
@@ -2898,14 +2883,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2924,16 +2909,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2983,7 +2968,7 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
@@ -2995,7 +2980,7 @@
         <v>20</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>20</v>
@@ -3004,7 +2989,7 @@
         <v>20</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>20</v>
@@ -3021,10 +3006,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3032,7 +3017,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>81</v>
@@ -3047,13 +3032,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3092,17 +3077,17 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
@@ -3114,7 +3099,7 @@
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
@@ -3140,23 +3125,23 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
@@ -3168,13 +3153,13 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3225,7 +3210,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3234,10 +3219,10 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
@@ -3263,13 +3248,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>20</v>
@@ -3291,13 +3276,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3348,7 +3333,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3357,10 +3342,10 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>20</v>
@@ -3386,23 +3371,23 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
@@ -3414,13 +3399,13 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3471,7 +3456,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3480,10 +3465,10 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>20</v>
@@ -3509,13 +3494,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>20</v>
@@ -3537,13 +3522,13 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3594,7 +3579,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3603,10 +3588,10 @@
         <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>20</v>
@@ -3632,13 +3617,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>20</v>
@@ -3648,7 +3633,7 @@
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>20</v>
@@ -3660,13 +3645,13 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3717,7 +3702,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3726,10 +3711,10 @@
         <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>20</v>
@@ -3755,14 +3740,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3775,25 +3760,25 @@
         <v>20</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3842,7 +3827,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3854,7 +3839,7 @@
         <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>20</v>
@@ -3863,7 +3848,7 @@
         <v>20</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>20</v>
@@ -3880,10 +3865,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3894,31 +3879,31 @@
         <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K16" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -3967,48 +3952,48 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AP16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AQ16" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AQ16" t="s" s="2">
-        <v>191</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4016,7 +4001,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>81</v>
@@ -4028,16 +4013,16 @@
         <v>20</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4088,7 +4073,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4100,36 +4085,36 @@
         <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AQ17" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4137,31 +4122,31 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="J18" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K18" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4187,72 +4172,72 @@
         <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Z18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO18" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AA18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AP18" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AL18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AQ18" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AQ18" t="s" s="2">
-        <v>209</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4263,28 +4248,28 @@
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K19" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4310,61 +4295,61 @@
         <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Y19" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Z19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AP19" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AQ19" t="s" s="2">
         <v>20</v>
@@ -4372,10 +4357,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4386,28 +4371,28 @@
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K20" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4433,74 +4418,74 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AA20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AP20" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AQ20" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AP20" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AQ20" t="s" s="2">
-        <v>232</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4516,19 +4501,19 @@
         <v>20</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4554,13 +4539,13 @@
         <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>20</v>
@@ -4578,7 +4563,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4590,36 +4575,36 @@
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AO21" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AP21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ21" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ21" t="s" s="2">
-        <v>244</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4627,28 +4612,28 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K22" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4699,80 +4684,80 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AP22" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AN22" t="s" s="2">
+      <c r="AQ22" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AP22" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AQ22" t="s" s="2">
-        <v>255</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K23" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4822,34 +4807,34 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO23" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>20</v>
@@ -4860,10 +4845,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4883,19 +4868,19 @@
         <v>20</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4945,7 +4930,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4957,36 +4942,36 @@
         <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP24" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AQ24" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AQ24" t="s" s="2">
-        <v>276</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4997,7 +4982,7 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>20</v>
@@ -5009,16 +4994,16 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5068,48 +5053,48 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AP25" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AQ25" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AQ25" t="s" s="2">
-        <v>287</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5120,7 +5105,7 @@
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>20</v>
@@ -5132,16 +5117,16 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5191,28 +5176,28 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>20</v>
@@ -5229,10 +5214,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5252,19 +5237,19 @@
         <v>20</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5314,7 +5299,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5326,16 +5311,16 @@
         <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>300</v>
+        <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>20</v>
@@ -5347,15 +5332,15 @@
         <v>20</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5366,7 +5351,7 @@
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -5378,13 +5363,13 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5435,13 +5420,13 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
@@ -5456,7 +5441,7 @@
         <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>20</v>
@@ -5473,14 +5458,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5499,16 +5484,16 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5558,7 +5543,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5570,7 +5555,7 @@
         <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>20</v>
@@ -5579,7 +5564,7 @@
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>20</v>
@@ -5596,14 +5581,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5616,25 +5601,25 @@
         <v>20</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -5683,7 +5668,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5695,7 +5680,7 @@
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>20</v>
@@ -5704,7 +5689,7 @@
         <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>20</v>
@@ -5721,10 +5706,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5732,31 +5717,31 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K31" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5782,72 +5767,72 @@
         <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Y31" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ31" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ31" t="s" s="2">
-        <v>327</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5855,28 +5840,28 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J32" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K32" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5927,28 +5912,28 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="AM32" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>20</v>
@@ -5960,15 +5945,15 @@
         <v>20</v>
       </c>
       <c r="AQ32" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5979,31 +5964,31 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K33" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -6052,19 +6037,19 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>20</v>
@@ -6073,7 +6058,7 @@
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>20</v>
@@ -6082,18 +6067,18 @@
         <v>20</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6113,22 +6098,22 @@
         <v>20</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -6153,13 +6138,13 @@
         <v>20</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>20</v>
@@ -6177,7 +6162,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6189,36 +6174,36 @@
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AO34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP34" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AQ34" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AQ34" t="s" s="2">
-        <v>354</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6226,7 +6211,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>81</v>
@@ -6238,16 +6223,16 @@
         <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6286,22 +6271,22 @@
         <v>20</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>81</v>
@@ -6310,16 +6295,16 @@
         <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>300</v>
+        <v>104</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>20</v>
@@ -6336,10 +6321,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6350,7 +6335,7 @@
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
@@ -6362,13 +6347,13 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6419,13 +6404,13 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
@@ -6440,7 +6425,7 @@
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>20</v>
@@ -6457,14 +6442,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6483,16 +6468,16 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6542,7 +6527,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6554,7 +6539,7 @@
         <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>20</v>
@@ -6563,7 +6548,7 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>20</v>
@@ -6580,14 +6565,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6600,25 +6585,25 @@
         <v>20</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6667,7 +6652,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6679,7 +6664,7 @@
         <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>20</v>
@@ -6688,7 +6673,7 @@
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>20</v>
@@ -6705,10 +6690,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6716,28 +6701,28 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K39" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6788,48 +6773,48 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>370</v>
-      </c>
       <c r="AM39" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6840,7 +6825,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>20</v>
@@ -6852,13 +6837,13 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>95</v>
+        <v>301</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6909,13 +6894,13 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
@@ -6930,7 +6915,7 @@
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>20</v>
@@ -6947,14 +6932,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6973,16 +6958,16 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7020,19 +7005,19 @@
         <v>20</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7044,7 +7029,7 @@
         <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>20</v>
@@ -7053,7 +7038,7 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>20</v>
@@ -7070,10 +7055,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7084,29 +7069,29 @@
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J42" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K42" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -7119,73 +7104,73 @@
         <v>20</v>
       </c>
       <c r="T42" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="U42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="Y42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP42" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="AQ42" t="s" s="2">
         <v>20</v>
@@ -7193,10 +7178,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7207,29 +7192,29 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J43" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H43" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K43" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -7242,7 +7227,7 @@
         <v>20</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>20</v>
@@ -7254,14 +7239,14 @@
         <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="Y43" t="s" s="2">
+      <c r="Z43" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>119</v>
-      </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
       </c>
@@ -7278,19 +7263,19 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
@@ -7299,7 +7284,7 @@
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>20</v>
@@ -7316,10 +7301,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7330,7 +7315,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
@@ -7342,19 +7327,19 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="O44" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -7403,19 +7388,19 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>20</v>
@@ -7424,7 +7409,7 @@
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>20</v>
@@ -7433,7 +7418,7 @@
         <v>20</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AQ44" t="s" s="2">
         <v>20</v>
@@ -7441,10 +7426,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7452,34 +7437,34 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J45" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K45" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="O45" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -7492,7 +7477,7 @@
         <v>20</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>20</v>
@@ -7528,19 +7513,19 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>20</v>
@@ -7549,7 +7534,7 @@
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>20</v>
@@ -7558,7 +7543,7 @@
         <v>20</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>20</v>
@@ -7566,10 +7551,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7580,31 +7565,31 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J46" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K46" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="O46" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -7653,19 +7638,19 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>20</v>
@@ -7674,7 +7659,7 @@
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>20</v>
@@ -7691,10 +7676,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7705,31 +7690,31 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J47" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H47" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K47" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7778,19 +7763,19 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
@@ -7799,7 +7784,7 @@
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>20</v>
@@ -7816,10 +7801,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7830,29 +7815,29 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J48" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K48" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7865,7 +7850,7 @@
         <v>20</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>20</v>
@@ -7901,19 +7886,19 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>20</v>
@@ -7922,7 +7907,7 @@
         <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>20</v>
@@ -7939,10 +7924,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7953,29 +7938,29 @@
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J49" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K49" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -8024,19 +8009,19 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>20</v>
@@ -8045,7 +8030,7 @@
         <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>20</v>
@@ -8062,10 +8047,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8076,28 +8061,28 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J50" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K50" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8123,103 +8108,103 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ50" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ50" t="s" s="2">
-        <v>450</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J51" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K51" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8270,10 +8255,10 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>81</v>
@@ -8282,16 +8267,16 @@
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>300</v>
+        <v>104</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>20</v>
@@ -8308,10 +8293,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8322,7 +8307,7 @@
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>20</v>
@@ -8334,13 +8319,13 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8391,13 +8376,13 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>20</v>
@@ -8412,7 +8397,7 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>20</v>
@@ -8429,14 +8414,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8455,16 +8440,16 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8514,7 +8499,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8526,7 +8511,7 @@
         <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>20</v>
@@ -8535,7 +8520,7 @@
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>20</v>
@@ -8552,14 +8537,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8572,25 +8557,25 @@
         <v>20</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -8639,7 +8624,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8651,7 +8636,7 @@
         <v>20</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>20</v>
@@ -8660,7 +8645,7 @@
         <v>20</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>20</v>
@@ -8677,10 +8662,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8688,28 +8673,28 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J55" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K55" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8760,48 +8745,48 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AG55" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>370</v>
-      </c>
       <c r="AM55" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AQ55" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8812,7 +8797,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>20</v>
@@ -8824,13 +8809,13 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>95</v>
+        <v>301</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8881,13 +8866,13 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>20</v>
@@ -8902,7 +8887,7 @@
         <v>20</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>20</v>
@@ -8919,14 +8904,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8945,16 +8930,16 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8992,19 +8977,19 @@
         <v>20</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9016,7 +9001,7 @@
         <v>20</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>20</v>
@@ -9025,7 +9010,7 @@
         <v>20</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>20</v>
@@ -9042,10 +9027,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9056,29 +9041,29 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K58" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>20</v>
@@ -9091,73 +9076,73 @@
         <v>20</v>
       </c>
       <c r="T58" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="U58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="Y58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP58" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="AQ58" t="s" s="2">
         <v>20</v>
@@ -9165,10 +9150,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9179,29 +9164,29 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J59" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K59" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -9214,7 +9199,7 @@
         <v>20</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="U59" t="s" s="2">
         <v>20</v>
@@ -9226,14 +9211,14 @@
         <v>20</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="Y59" t="s" s="2">
+      <c r="Z59" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>119</v>
-      </c>
       <c r="AA59" t="s" s="2">
         <v>20</v>
       </c>
@@ -9250,19 +9235,19 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>20</v>
@@ -9271,7 +9256,7 @@
         <v>20</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>20</v>
@@ -9288,10 +9273,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9302,7 +9287,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>20</v>
@@ -9314,19 +9299,19 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="O60" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -9375,19 +9360,19 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>20</v>
@@ -9396,7 +9381,7 @@
         <v>20</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>20</v>
@@ -9405,7 +9390,7 @@
         <v>20</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AQ60" t="s" s="2">
         <v>20</v>
@@ -9413,10 +9398,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9424,34 +9409,34 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J61" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K61" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="O61" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>20</v>
@@ -9464,7 +9449,7 @@
         <v>20</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="U61" t="s" s="2">
         <v>20</v>
@@ -9500,19 +9485,19 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>20</v>
@@ -9521,7 +9506,7 @@
         <v>20</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>20</v>
@@ -9530,7 +9515,7 @@
         <v>20</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AQ61" t="s" s="2">
         <v>20</v>
@@ -9538,10 +9523,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9552,31 +9537,31 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J62" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K62" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="O62" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>20</v>
@@ -9625,19 +9610,19 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>20</v>
@@ -9646,7 +9631,7 @@
         <v>20</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>20</v>
@@ -9663,10 +9648,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9677,31 +9662,31 @@
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J63" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K63" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>20</v>
@@ -9750,19 +9735,19 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>20</v>
@@ -9771,7 +9756,7 @@
         <v>20</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>20</v>
@@ -9788,10 +9773,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9802,29 +9787,29 @@
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J64" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K64" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -9837,7 +9822,7 @@
         <v>20</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="U64" t="s" s="2">
         <v>20</v>
@@ -9873,19 +9858,19 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>20</v>
@@ -9894,7 +9879,7 @@
         <v>20</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>20</v>
@@ -9911,10 +9896,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9925,29 +9910,29 @@
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J65" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K65" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>20</v>
@@ -9996,19 +9981,19 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>20</v>
@@ -10017,7 +10002,7 @@
         <v>20</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>20</v>
@@ -10034,10 +10019,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10048,28 +10033,28 @@
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J66" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K66" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10095,72 +10080,72 @@
         <v>20</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y66" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ66" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ66" t="s" s="2">
-        <v>450</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10171,28 +10156,28 @@
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J67" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K67" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10242,28 +10227,28 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>20</v>
@@ -10280,10 +10265,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10294,7 +10279,7 @@
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>20</v>
@@ -10306,13 +10291,13 @@
         <v>20</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10363,13 +10348,13 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>20</v>
@@ -10384,7 +10369,7 @@
         <v>20</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>20</v>
@@ -10401,14 +10386,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10427,16 +10412,16 @@
         <v>20</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10486,7 +10471,7 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10498,7 +10483,7 @@
         <v>20</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>20</v>
@@ -10507,7 +10492,7 @@
         <v>20</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>20</v>
@@ -10524,14 +10509,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10544,25 +10529,25 @@
         <v>20</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>20</v>
@@ -10611,7 +10596,7 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10623,7 +10608,7 @@
         <v>20</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>20</v>
@@ -10632,7 +10617,7 @@
         <v>20</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>20</v>
@@ -10649,10 +10634,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10675,13 +10660,13 @@
         <v>20</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10732,7 +10717,7 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10744,22 +10729,22 @@
         <v>20</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>20</v>
@@ -10770,10 +10755,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10796,16 +10781,16 @@
         <v>20</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10831,13 +10816,13 @@
         <v>20</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>20</v>
@@ -10855,7 +10840,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10867,16 +10852,16 @@
         <v>20</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>20</v>
@@ -10888,15 +10873,15 @@
         <v>20</v>
       </c>
       <c r="AQ72" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10907,25 +10892,25 @@
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J73" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K73" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10976,31 +10961,31 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="AG73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>498</v>
-      </c>
       <c r="AM73" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>20</v>
@@ -11009,15 +10994,15 @@
         <v>20</v>
       </c>
       <c r="AQ73" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11028,7 +11013,7 @@
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>20</v>
@@ -11040,13 +11025,13 @@
         <v>20</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11073,72 +11058,72 @@
         <v>20</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Y74" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="Z74" t="s" s="2">
+      <c r="AO74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ74" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ74" t="s" s="2">
-        <v>510</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11149,7 +11134,7 @@
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>20</v>
@@ -11161,19 +11146,19 @@
         <v>20</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>20</v>
@@ -11198,13 +11183,13 @@
         <v>20</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>20</v>
@@ -11222,31 +11207,31 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>20</v>
@@ -11255,15 +11240,15 @@
         <v>20</v>
       </c>
       <c r="AQ75" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11274,7 +11259,7 @@
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>20</v>
@@ -11286,13 +11271,13 @@
         <v>20</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11343,48 +11328,48 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ76" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ76" t="s" s="2">
-        <v>523</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11407,16 +11392,16 @@
         <v>20</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11466,7 +11451,7 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11478,19 +11463,19 @@
         <v>20</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>20</v>
@@ -11499,7 +11484,7 @@
         <v>20</v>
       </c>
       <c r="AQ77" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ncpi-drs-file.xlsx
+++ b/StructureDefinition-ncpi-drs-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T15:45:04+00:00</t>
+    <t>2025-06-25T19:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-file.xlsx
+++ b/StructureDefinition-ncpi-drs-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T19:44:14+00:00</t>
+    <t>2025-06-27T14:40:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>81</v>

--- a/StructureDefinition-ncpi-drs-file.xlsx
+++ b/StructureDefinition-ncpi-drs-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-27T14:40:47+00:00</t>
+    <t>2025-07-21T16:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-file.xlsx
+++ b/StructureDefinition-ncpi-drs-file.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3076" uniqueCount="530">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:00:02+00:00</t>
+    <t>2025-07-21T16:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -464,10 +464,10 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>DocumentReference.extension:file-format</t>
-  </si>
-  <si>
-    <t>file-format</t>
+    <t>DocumentReference.extension:fileFormat</t>
+  </si>
+  <si>
+    <t>fileFormat</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/file-format}
@@ -484,10 +484,651 @@
 </t>
   </si>
   <si>
-    <t>DocumentReference.extension:location-access</t>
-  </si>
-  <si>
-    <t>location-access</t>
+    <t>DocumentReference.extension:fileSize</t>
+  </si>
+  <si>
+    <t>fileSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/file-size}
+</t>
+  </si>
+  <si>
+    <t>Indicate the size of the file in reference</t>
+  </si>
+  <si>
+    <t>The size of the file, e.g., in bytes.</t>
+  </si>
+  <si>
+    <t>DocumentReference.extension:hash</t>
+  </si>
+  <si>
+    <t>hash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/hash-extension}
+</t>
+  </si>
+  <si>
+    <t>Provides a list of hashes for confirming file transfers</t>
+  </si>
+  <si>
+    <t>DocumentReference.extension:contentVersion</t>
+  </si>
+  <si>
+    <t>contentVersion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/content-version}
+</t>
+  </si>
+  <si>
+    <t>The version of the content in the file</t>
+  </si>
+  <si>
+    <t>Version of the contents of the file</t>
+  </si>
+  <si>
+    <t>DocumentReference.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>DocumentReference.masterIdentifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Master Version Specific Identifier</t>
+  </si>
+  <si>
+    <t>Document identifier as assigned by the source of the document. This identifier is specific to this version of the document. This unique identifier may be used elsewhere to identify this version of the document.</t>
+  </si>
+  <si>
+    <t>CDA Document Id extension and root.</t>
+  </si>
+  <si>
+    <t>The structure and format of this Id shall be consistent with the specification corresponding to the formatCode attribute. (e.g. for a DICOM standard document a 64-character numeric UID, for an HL7 CDA format a serialization of the CDA Document Id extension and root in the form "oid^extension", where OID is a 64 digits max, and the Id is a 16 UTF-8 char max. If the OID is coded without the extension then the '^' character shall not be included.).</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>Composition.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>TXA-12</t>
+  </si>
+  <si>
+    <t>DocumentEntry.uniqueId</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier</t>
+  </si>
+  <si>
+    <t>A related external file ID</t>
+  </si>
+  <si>
+    <t>Other identifiers associated with the document, including version independent identifiers.</t>
+  </si>
+  <si>
+    <t>.id / .setId</t>
+  </si>
+  <si>
+    <t>TXA-16?</t>
+  </si>
+  <si>
+    <t>DocumentEntry.entryUUID</t>
+  </si>
+  <si>
+    <t>DocumentReference.status</t>
+  </si>
+  <si>
+    <t>current | superseded | entered-in-error</t>
+  </si>
+  <si>
+    <t>The status of this document reference.</t>
+  </si>
+  <si>
+    <t>This is the status of the DocumentReference object, which might be independent from the docStatus element.
+This element is labeled as a modifier because the status contains the codes that mark the document or reference as not currently valid.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of the document reference.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/document-reference-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>interim: .completionCode="IN" &amp; ./statusCode[isNormalDatatype()]="active";  final: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and not(./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseDocument", code) and isNormalAct()]);  amended: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and ./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseDocument", code) and isNormalAct() and statusCode="completed"];  withdrawn : .completionCode=NI &amp;&amp;  ./statusCode[isNormalDatatype()]="obsolete"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>TXA-19</t>
+  </si>
+  <si>
+    <t>DocumentEntry.availabilityStatus</t>
+  </si>
+  <si>
+    <t>DocumentReference.docStatus</t>
+  </si>
+  <si>
+    <t>preliminary | final | amended | entered-in-error</t>
+  </si>
+  <si>
+    <t>The status of the underlying document.</t>
+  </si>
+  <si>
+    <t>The document that is pointed to might be in various lifecycle states.</t>
+  </si>
+  <si>
+    <t>Status of the underlying document.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/composition-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Composition.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>TXA-17</t>
+  </si>
+  <si>
+    <t>DocumentReference.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>The type of data contained in this file.</t>
+  </si>
+  <si>
+    <t>Specifies the particular kind of document referenced  (e.g. History and Physical, Discharge Summary, Progress Note). This usually equates to the purpose of making the document referenced.</t>
+  </si>
+  <si>
+    <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>https://nih-ncpi.github.io/ncpi-fhir-ig-2/ValueSet/edam-ontology-terms-vs</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>Composition.type</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/code/@code 
+The typeCode should be mapped from the ClinicalDocument/code element to a set of document type codes configured in the affinity domain. One suggested coding system to use for typeCode is LOINC, in which case the mapping step can be omitted.</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>TXA-2</t>
+  </si>
+  <si>
+    <t>DocumentEntry.type</t>
+  </si>
+  <si>
+    <t>DocumentReference.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">claxs
+</t>
+  </si>
+  <si>
+    <t>Categorization of document</t>
+  </si>
+  <si>
+    <t>A categorization for the type of document referenced - helps for indexing and searching. This may be implied by or derived from the code specified in the DocumentReference.type.</t>
+  </si>
+  <si>
+    <t>Key metadata element describing the the category or classification of the document. This is a broader perspective that groups similar documents based on how they would be used. This is a primary key used in searching.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>High-level kind of a clinical document at a macro level.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
+  </si>
+  <si>
+    <t>Composition.class</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>Derived from a mapping of /ClinicalDocument/code/@code to an Affinity Domain specified coded value to use and coding system. Affinity Domains are encouraged to use the appropriate value for Type of Service, based on the LOINC Type of Service (see Page 53 of the LOINC User's Manual). Must be consistent with /ClinicalDocument/code/@code</t>
+  </si>
+  <si>
+    <t>DocumentEntry.class</t>
+  </si>
+  <si>
+    <t>DocumentReference.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|Practitioner|Group|Device)
+</t>
+  </si>
+  <si>
+    <t>The participant(s) for whom this file contains data (i.e., ParticipantID)</t>
+  </si>
+  <si>
+    <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>Composition.subject</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="SBJ"].role[typeCode="PAT"]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/recordTarget/</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>PID-3 (No standard way to define a Practitioner or Group subject in HL7 v2 MDM message)</t>
+  </si>
+  <si>
+    <t>DocumentEntry.patientId</t>
+  </si>
+  <si>
+    <t>DocumentReference.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indexed
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When this document reference was created</t>
+  </si>
+  <si>
+    <t>When the document reference was created.</t>
+  </si>
+  <si>
+    <t>Referencing/indexing time is used for tracking, organizing versions and searching.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>Composition.date</t>
+  </si>
+  <si>
+    <t>.availabilityTime[type="TS"]</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>DocumentReference.author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Device|Patient|RelatedPerson)
+</t>
+  </si>
+  <si>
+    <t>Who and/or what authored the document</t>
+  </si>
+  <si>
+    <t>Identifies who is responsible for adding the information to the document.</t>
+  </si>
+  <si>
+    <t>Not necessarily who did the actual data entry (i.e. typist) or who was the source (informant).</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>Composition.author</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="AUT"].role[classCode="ASSIGNED"]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/author</t>
+  </si>
+  <si>
+    <t>TXA-9 (No standard way to indicate a Device in HL7 v2 MDM message)</t>
+  </si>
+  <si>
+    <t>DocumentEntry.author</t>
+  </si>
+  <si>
+    <t>DocumentReference.authenticator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+</t>
+  </si>
+  <si>
+    <t>Who/what authenticated the document</t>
+  </si>
+  <si>
+    <t>Which person or organization authenticates that this document is valid.</t>
+  </si>
+  <si>
+    <t>Represents a participant within the author institution who has legally authenticated or attested the document. Legal authentication implies that a document has been signed manually or electronically by the legal Authenticator.</t>
+  </si>
+  <si>
+    <t>Composition.attester</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="AUTHEN"].role[classCode="ASSIGNED"]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/legalAuthenticator</t>
+  </si>
+  <si>
+    <t>FiveWs.witness</t>
+  </si>
+  <si>
+    <t>TXA-10</t>
+  </si>
+  <si>
+    <t>DocumentEntry.legalAuthenticator</t>
+  </si>
+  <si>
+    <t>DocumentReference.custodian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization which maintains the document</t>
+  </si>
+  <si>
+    <t>Identifies the organization or group who is responsible for ongoing maintenance of and access to the document.</t>
+  </si>
+  <si>
+    <t>Identifies the logical organization (software system, vendor, or department) to go to find the current version, where to report issues, etc. This is different from the physical location (URL, disk drive, or server) of the document, which is the technical location of the document, which host may be delegated to the management of some other organization.</t>
+  </si>
+  <si>
+    <t>Composition.custodian</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="RCV"].role[classCode="CUST"].scoper[classCode="ORG" and determinerCode="INST"]</t>
+  </si>
+  <si>
+    <t>DocumentReference.relatesTo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Relationships to other documents</t>
+  </si>
+  <si>
+    <t>Relationships that this document has with other document references that already exist.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because documents that append to other documents are incomplete on their own.</t>
+  </si>
+  <si>
+    <t>Composition.relatesTo</t>
+  </si>
+  <si>
+    <t>.outboundRelationship</t>
+  </si>
+  <si>
+    <t>DocumentEntry Associations</t>
+  </si>
+  <si>
+    <t>DocumentReference.relatesTo.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DocumentReference.relatesTo.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.relatesTo.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>DocumentReference.relatesTo.code</t>
+  </si>
+  <si>
+    <t>replaces | transforms | signs | appends</t>
+  </si>
+  <si>
+    <t>The type of relationship that this document has with anther document.</t>
+  </si>
+  <si>
+    <t>If this document appends another document, then the document cannot be fully understood without also accessing the referenced document.</t>
+  </si>
+  <si>
+    <t>The type of relationship between documents.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/document-relationship-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Composition.relatesTo.code</t>
+  </si>
+  <si>
+    <t>.outboundRelationship.typeCode</t>
+  </si>
+  <si>
+    <t>DocumentEntry Associations type</t>
+  </si>
+  <si>
+    <t>DocumentReference.relatesTo.target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(DocumentReference)
+</t>
+  </si>
+  <si>
+    <t>Target of the relationship</t>
+  </si>
+  <si>
+    <t>The target document of this relationship.</t>
+  </si>
+  <si>
+    <t>Composition.relatesTo.target</t>
+  </si>
+  <si>
+    <t>.target[classCode="DOC", moodCode="EVN"].id</t>
+  </si>
+  <si>
+    <t>DocumentEntry Associations reference</t>
+  </si>
+  <si>
+    <t>DocumentReference.description</t>
+  </si>
+  <si>
+    <t>A description of the file</t>
+  </si>
+  <si>
+    <t>Human-readable description of the source document.</t>
+  </si>
+  <si>
+    <t>What the document is about,  a terse summary of the document.</t>
+  </si>
+  <si>
+    <t>Helps humans to assess whether the document is of interest.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="SUBJ"].target.text</t>
+  </si>
+  <si>
+    <t>TXA-25</t>
+  </si>
+  <si>
+    <t>DocumentEntry.comments</t>
+  </si>
+  <si>
+    <t>DocumentReference.securityLabel</t>
+  </si>
+  <si>
+    <t>Document security-tags</t>
+  </si>
+  <si>
+    <t>A set of Security-Tag codes specifying the level of privacy/security of the Document. Note that DocumentReference.meta.security contains the security labels of the "reference" to the document, while DocumentReference.securityLabel contains a snapshot of the security labels on the document the reference refers to.</t>
+  </si>
+  <si>
+    <t>The confidentiality codes can carry multiple vocabulary items. HL7 has developed an understanding of security and privacy tags that might be desirable in a Document Sharing environment, called HL7 Healthcare Privacy and Security Classification System (HCS). The following specification is recommended but not mandated, as the vocabulary bindings are an administrative domain responsibility. The use of this method is up to the policy domain such as the XDS Affinity Domain or other Trust Domain where all parties including sender and recipients are trusted to appropriately tag and enforce.   
+In the HL7 Healthcare Privacy and Security Classification (HCS) there are code systems specific to Confidentiality, Sensitivity, Integrity, and Handling Caveats. Some values would come from a local vocabulary as they are related to workflow roles and special projects.</t>
+  </si>
+  <si>
+    <t>Use of the Health Care Privacy/Security Classification (HCS) system of security-tag use is recommended.</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Composition.confidentiality, Composition.meta.security</t>
+  </si>
+  <si>
+    <t>.confidentialityCode</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/confidentialityCode/@code</t>
+  </si>
+  <si>
+    <t>TXA-18</t>
+  </si>
+  <si>
+    <t>DocumentEntry.confidentialityCode</t>
+  </si>
+  <si>
+    <t>DocumentReference.content</t>
+  </si>
+  <si>
+    <t>Document referenced</t>
+  </si>
+  <si>
+    <t>The document and format referenced. There may be multiple content element repetitions, each with a different format.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:attachment.url}
+</t>
+  </si>
+  <si>
+    <t>Slicing pattern to make content.attachment require a DRS file type and allow other file types</t>
+  </si>
+  <si>
+    <t>openAtEnd</t>
+  </si>
+  <si>
+    <t>Bundle(Composition+*)</t>
+  </si>
+  <si>
+    <t>document.text</t>
+  </si>
+  <si>
+    <t>DocumentReference.content.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.content.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.content.extension:locationAccess</t>
+  </si>
+  <si>
+    <t>locationAccess</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/location-access}
@@ -495,647 +1136,6 @@
   </si>
   <si>
     <t>If present, only those under the specific Access Policy can access the file in this location.</t>
-  </si>
-  <si>
-    <t>DocumentReference.extension:file-size</t>
-  </si>
-  <si>
-    <t>file-size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/file-size}
-</t>
-  </si>
-  <si>
-    <t>Indicate the size of the file in reference</t>
-  </si>
-  <si>
-    <t>The size of the file, e.g., in bytes.</t>
-  </si>
-  <si>
-    <t>DocumentReference.extension:hash</t>
-  </si>
-  <si>
-    <t>hash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/hash-extension}
-</t>
-  </si>
-  <si>
-    <t>Provides a list of hashes for confirming file transfers</t>
-  </si>
-  <si>
-    <t>DocumentReference.extension:content-version</t>
-  </si>
-  <si>
-    <t>content-version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/content-version}
-</t>
-  </si>
-  <si>
-    <t>The version of the content in the file</t>
-  </si>
-  <si>
-    <t>Version of the contents of the file</t>
-  </si>
-  <si>
-    <t>DocumentReference.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>DocumentReference.masterIdentifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Master Version Specific Identifier</t>
-  </si>
-  <si>
-    <t>Document identifier as assigned by the source of the document. This identifier is specific to this version of the document. This unique identifier may be used elsewhere to identify this version of the document.</t>
-  </si>
-  <si>
-    <t>CDA Document Id extension and root.</t>
-  </si>
-  <si>
-    <t>The structure and format of this Id shall be consistent with the specification corresponding to the formatCode attribute. (e.g. for a DICOM standard document a 64-character numeric UID, for an HL7 CDA format a serialization of the CDA Document Id extension and root in the form "oid^extension", where OID is a 64 digits max, and the Id is a 16 UTF-8 char max. If the OID is coded without the extension then the '^' character shall not be included.).</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>Composition.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>TXA-12</t>
-  </si>
-  <si>
-    <t>DocumentEntry.uniqueId</t>
-  </si>
-  <si>
-    <t>DocumentReference.identifier</t>
-  </si>
-  <si>
-    <t>A related external file ID</t>
-  </si>
-  <si>
-    <t>Other identifiers associated with the document, including version independent identifiers.</t>
-  </si>
-  <si>
-    <t>.id / .setId</t>
-  </si>
-  <si>
-    <t>TXA-16?</t>
-  </si>
-  <si>
-    <t>DocumentEntry.entryUUID</t>
-  </si>
-  <si>
-    <t>DocumentReference.status</t>
-  </si>
-  <si>
-    <t>current | superseded | entered-in-error</t>
-  </si>
-  <si>
-    <t>The status of this document reference.</t>
-  </si>
-  <si>
-    <t>This is the status of the DocumentReference object, which might be independent from the docStatus element.
-This element is labeled as a modifier because the status contains the codes that mark the document or reference as not currently valid.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The status of the document reference.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/document-reference-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>interim: .completionCode="IN" &amp; ./statusCode[isNormalDatatype()]="active";  final: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and not(./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseDocument", code) and isNormalAct()]);  amended: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and ./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseDocument", code) and isNormalAct() and statusCode="completed"];  withdrawn : .completionCode=NI &amp;&amp;  ./statusCode[isNormalDatatype()]="obsolete"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>TXA-19</t>
-  </si>
-  <si>
-    <t>DocumentEntry.availabilityStatus</t>
-  </si>
-  <si>
-    <t>DocumentReference.docStatus</t>
-  </si>
-  <si>
-    <t>preliminary | final | amended | entered-in-error</t>
-  </si>
-  <si>
-    <t>The status of the underlying document.</t>
-  </si>
-  <si>
-    <t>The document that is pointed to might be in various lifecycle states.</t>
-  </si>
-  <si>
-    <t>Status of the underlying document.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/composition-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Composition.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>TXA-17</t>
-  </si>
-  <si>
-    <t>DocumentReference.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>The type of data contained in this file.</t>
-  </si>
-  <si>
-    <t>Specifies the particular kind of document referenced  (e.g. History and Physical, Discharge Summary, Progress Note). This usually equates to the purpose of making the document referenced.</t>
-  </si>
-  <si>
-    <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>https://nih-ncpi.github.io/ncpi-fhir-ig-2/ValueSet/edam-ontology-terms-vs</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>Composition.type</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/code/@code 
-The typeCode should be mapped from the ClinicalDocument/code element to a set of document type codes configured in the affinity domain. One suggested coding system to use for typeCode is LOINC, in which case the mapping step can be omitted.</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>TXA-2</t>
-  </si>
-  <si>
-    <t>DocumentEntry.type</t>
-  </si>
-  <si>
-    <t>DocumentReference.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">claxs
-</t>
-  </si>
-  <si>
-    <t>Categorization of document</t>
-  </si>
-  <si>
-    <t>A categorization for the type of document referenced - helps for indexing and searching. This may be implied by or derived from the code specified in the DocumentReference.type.</t>
-  </si>
-  <si>
-    <t>Key metadata element describing the the category or classification of the document. This is a broader perspective that groups similar documents based on how they would be used. This is a primary key used in searching.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>High-level kind of a clinical document at a macro level.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
-  </si>
-  <si>
-    <t>Composition.class</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>Derived from a mapping of /ClinicalDocument/code/@code to an Affinity Domain specified coded value to use and coding system. Affinity Domains are encouraged to use the appropriate value for Type of Service, based on the LOINC Type of Service (see Page 53 of the LOINC User's Manual). Must be consistent with /ClinicalDocument/code/@code</t>
-  </si>
-  <si>
-    <t>DocumentEntry.class</t>
-  </si>
-  <si>
-    <t>DocumentReference.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|Group|Device)
-</t>
-  </si>
-  <si>
-    <t>The participant(s) for whom this file contains data (i.e., ParticipantID)</t>
-  </si>
-  <si>
-    <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>Composition.subject</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="SBJ"].role[typeCode="PAT"]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/recordTarget/</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>PID-3 (No standard way to define a Practitioner or Group subject in HL7 v2 MDM message)</t>
-  </si>
-  <si>
-    <t>DocumentEntry.patientId</t>
-  </si>
-  <si>
-    <t>DocumentReference.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indexed
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>When this document reference was created</t>
-  </si>
-  <si>
-    <t>When the document reference was created.</t>
-  </si>
-  <si>
-    <t>Referencing/indexing time is used for tracking, organizing versions and searching.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>Composition.date</t>
-  </si>
-  <si>
-    <t>.availabilityTime[type="TS"]</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>DocumentReference.author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Device|Patient|RelatedPerson)
-</t>
-  </si>
-  <si>
-    <t>Who and/or what authored the document</t>
-  </si>
-  <si>
-    <t>Identifies who is responsible for adding the information to the document.</t>
-  </si>
-  <si>
-    <t>Not necessarily who did the actual data entry (i.e. typist) or who was the source (informant).</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>Composition.author</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="AUT"].role[classCode="ASSIGNED"]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/author</t>
-  </si>
-  <si>
-    <t>TXA-9 (No standard way to indicate a Device in HL7 v2 MDM message)</t>
-  </si>
-  <si>
-    <t>DocumentEntry.author</t>
-  </si>
-  <si>
-    <t>DocumentReference.authenticator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
-</t>
-  </si>
-  <si>
-    <t>Who/what authenticated the document</t>
-  </si>
-  <si>
-    <t>Which person or organization authenticates that this document is valid.</t>
-  </si>
-  <si>
-    <t>Represents a participant within the author institution who has legally authenticated or attested the document. Legal authentication implies that a document has been signed manually or electronically by the legal Authenticator.</t>
-  </si>
-  <si>
-    <t>Composition.attester</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="AUTHEN"].role[classCode="ASSIGNED"]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/legalAuthenticator</t>
-  </si>
-  <si>
-    <t>FiveWs.witness</t>
-  </si>
-  <si>
-    <t>TXA-10</t>
-  </si>
-  <si>
-    <t>DocumentEntry.legalAuthenticator</t>
-  </si>
-  <si>
-    <t>DocumentReference.custodian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization which maintains the document</t>
-  </si>
-  <si>
-    <t>Identifies the organization or group who is responsible for ongoing maintenance of and access to the document.</t>
-  </si>
-  <si>
-    <t>Identifies the logical organization (software system, vendor, or department) to go to find the current version, where to report issues, etc. This is different from the physical location (URL, disk drive, or server) of the document, which is the technical location of the document, which host may be delegated to the management of some other organization.</t>
-  </si>
-  <si>
-    <t>Composition.custodian</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="RCV"].role[classCode="CUST"].scoper[classCode="ORG" and determinerCode="INST"]</t>
-  </si>
-  <si>
-    <t>DocumentReference.relatesTo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Relationships to other documents</t>
-  </si>
-  <si>
-    <t>Relationships that this document has with other document references that already exist.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because documents that append to other documents are incomplete on their own.</t>
-  </si>
-  <si>
-    <t>Composition.relatesTo</t>
-  </si>
-  <si>
-    <t>.outboundRelationship</t>
-  </si>
-  <si>
-    <t>DocumentEntry Associations</t>
-  </si>
-  <si>
-    <t>DocumentReference.relatesTo.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>DocumentReference.relatesTo.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>DocumentReference.relatesTo.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>DocumentReference.relatesTo.code</t>
-  </si>
-  <si>
-    <t>replaces | transforms | signs | appends</t>
-  </si>
-  <si>
-    <t>The type of relationship that this document has with anther document.</t>
-  </si>
-  <si>
-    <t>If this document appends another document, then the document cannot be fully understood without also accessing the referenced document.</t>
-  </si>
-  <si>
-    <t>The type of relationship between documents.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/document-relationship-type|4.0.1</t>
-  </si>
-  <si>
-    <t>Composition.relatesTo.code</t>
-  </si>
-  <si>
-    <t>.outboundRelationship.typeCode</t>
-  </si>
-  <si>
-    <t>DocumentEntry Associations type</t>
-  </si>
-  <si>
-    <t>DocumentReference.relatesTo.target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(DocumentReference)
-</t>
-  </si>
-  <si>
-    <t>Target of the relationship</t>
-  </si>
-  <si>
-    <t>The target document of this relationship.</t>
-  </si>
-  <si>
-    <t>Composition.relatesTo.target</t>
-  </si>
-  <si>
-    <t>.target[classCode="DOC", moodCode="EVN"].id</t>
-  </si>
-  <si>
-    <t>DocumentEntry Associations reference</t>
-  </si>
-  <si>
-    <t>DocumentReference.description</t>
-  </si>
-  <si>
-    <t>A description of the file</t>
-  </si>
-  <si>
-    <t>Human-readable description of the source document.</t>
-  </si>
-  <si>
-    <t>What the document is about,  a terse summary of the document.</t>
-  </si>
-  <si>
-    <t>Helps humans to assess whether the document is of interest.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="SUBJ"].target.text</t>
-  </si>
-  <si>
-    <t>TXA-25</t>
-  </si>
-  <si>
-    <t>DocumentEntry.comments</t>
-  </si>
-  <si>
-    <t>DocumentReference.securityLabel</t>
-  </si>
-  <si>
-    <t>Document security-tags</t>
-  </si>
-  <si>
-    <t>A set of Security-Tag codes specifying the level of privacy/security of the Document. Note that DocumentReference.meta.security contains the security labels of the "reference" to the document, while DocumentReference.securityLabel contains a snapshot of the security labels on the document the reference refers to.</t>
-  </si>
-  <si>
-    <t>The confidentiality codes can carry multiple vocabulary items. HL7 has developed an understanding of security and privacy tags that might be desirable in a Document Sharing environment, called HL7 Healthcare Privacy and Security Classification System (HCS). The following specification is recommended but not mandated, as the vocabulary bindings are an administrative domain responsibility. The use of this method is up to the policy domain such as the XDS Affinity Domain or other Trust Domain where all parties including sender and recipients are trusted to appropriately tag and enforce.   
-In the HL7 Healthcare Privacy and Security Classification (HCS) there are code systems specific to Confidentiality, Sensitivity, Integrity, and Handling Caveats. Some values would come from a local vocabulary as they are related to workflow roles and special projects.</t>
-  </si>
-  <si>
-    <t>Use of the Health Care Privacy/Security Classification (HCS) system of security-tag use is recommended.</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Composition.confidentiality, Composition.meta.security</t>
-  </si>
-  <si>
-    <t>.confidentialityCode</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/confidentialityCode/@code</t>
-  </si>
-  <si>
-    <t>TXA-18</t>
-  </si>
-  <si>
-    <t>DocumentEntry.confidentialityCode</t>
-  </si>
-  <si>
-    <t>DocumentReference.content</t>
-  </si>
-  <si>
-    <t>Document referenced</t>
-  </si>
-  <si>
-    <t>The document and format referenced. There may be multiple content element repetitions, each with a different format.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:attachment.url}
-</t>
-  </si>
-  <si>
-    <t>Slicing pattern to make content.attachment require a DRS file type and allow other file types</t>
-  </si>
-  <si>
-    <t>openAtEnd</t>
-  </si>
-  <si>
-    <t>Bundle(Composition+*)</t>
-  </si>
-  <si>
-    <t>document.text</t>
-  </si>
-  <si>
-    <t>DocumentReference.content.id</t>
-  </si>
-  <si>
-    <t>DocumentReference.content.extension</t>
   </si>
   <si>
     <t>DocumentReference.content.modifierExtension</t>
@@ -1414,6 +1414,9 @@
   </si>
   <si>
     <t>DocumentReference.content:DRS.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.content:DRS.extension:locationAccess</t>
   </si>
   <si>
     <t>DocumentReference.content:DRS.modifierExtension</t>
@@ -1961,7 +1964,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ77"/>
+  <dimension ref="A1:AQ78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1970,9 +1973,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.40625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.76953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.23828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -3261,10 +3264,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
@@ -3282,7 +3285,7 @@
         <v>154</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3371,23 +3374,23 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>136</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
@@ -3399,10 +3402,10 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
         <v>159</v>
@@ -3510,7 +3513,7 @@
         <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
@@ -3528,7 +3531,7 @@
         <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3617,35 +3620,33 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C14" t="s" s="2">
         <v>165</v>
       </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>167</v>
@@ -3653,8 +3654,12 @@
       <c r="M14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="N14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
       </c>
@@ -3702,7 +3707,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3711,7 +3716,7 @@
         <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>144</v>
@@ -3723,7 +3728,7 @@
         <v>20</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>20</v>
@@ -3740,45 +3745,45 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="J15" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="K15" t="s" s="2">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3827,48 +3832,48 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c r="AQ15" t="s" s="2">
-        <v>20</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3879,7 +3884,7 @@
         <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>20</v>
@@ -3891,20 +3896,16 @@
         <v>93</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>20</v>
       </c>
@@ -3952,13 +3953,13 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
@@ -3967,33 +3968,33 @@
         <v>104</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AL16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="AP16" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AQ16" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4001,30 +4002,32 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -4049,13 +4052,13 @@
         <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>20</v>
@@ -4073,13 +4076,13 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>20</v>
@@ -4088,33 +4091,33 @@
         <v>104</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="AQ17" t="s" s="2">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4122,7 +4125,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>92</v>
@@ -4131,7 +4134,7 @@
         <v>20</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>93</v>
@@ -4140,13 +4143,13 @@
         <v>112</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4172,13 +4175,13 @@
         <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>20</v>
@@ -4196,10 +4199,10 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>92</v>
@@ -4211,33 +4214,33 @@
         <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AQ18" t="s" s="2">
-        <v>206</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4260,16 +4263,16 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>112</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4295,31 +4298,29 @@
         <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4334,44 +4335,44 @@
         <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AQ19" t="s" s="2">
-        <v>20</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -4383,16 +4384,16 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4418,11 +4419,13 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="Y20" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="Z20" t="s" s="2">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
@@ -4440,13 +4443,13 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>20</v>
@@ -4455,44 +4458,44 @@
         <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AO20" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AL20" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>227</v>
-      </c>
       <c r="AP20" t="s" s="2">
-        <v>228</v>
+        <v>20</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>20</v>
@@ -4504,17 +4507,15 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -4539,13 +4540,13 @@
         <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>236</v>
+        <v>20</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>237</v>
+        <v>20</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>20</v>
@@ -4563,13 +4564,13 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>20</v>
@@ -4578,41 +4579,41 @@
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>20</v>
+        <v>242</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c r="AQ21" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>92</v>
@@ -4627,15 +4628,17 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4684,7 +4687,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4699,44 +4702,44 @@
         <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>249</v>
+        <v>20</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>252</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
@@ -4748,16 +4751,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4807,13 +4810,13 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>20</v>
@@ -4822,33 +4825,33 @@
         <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>20</v>
+        <v>267</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>262</v>
+        <v>20</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>20</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4859,7 +4862,7 @@
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>20</v>
@@ -4868,19 +4871,19 @@
         <v>20</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4930,13 +4933,13 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>20</v>
@@ -4945,33 +4948,33 @@
         <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>20</v>
+        <v>278</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4994,16 +4997,16 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5053,7 +5056,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5068,33 +5071,33 @@
         <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>281</v>
+        <v>20</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>282</v>
+        <v>20</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>283</v>
+        <v>20</v>
       </c>
       <c r="AQ25" t="s" s="2">
-        <v>284</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5105,7 +5108,7 @@
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>20</v>
@@ -5114,19 +5117,19 @@
         <v>20</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5176,13 +5179,13 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>20</v>
@@ -5191,13 +5194,13 @@
         <v>104</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>268</v>
+        <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>20</v>
@@ -5209,15 +5212,15 @@
         <v>20</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>20</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5228,7 +5231,7 @@
         <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>20</v>
@@ -5237,20 +5240,18 @@
         <v>20</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -5299,28 +5300,28 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>297</v>
+        <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>20</v>
@@ -5332,26 +5333,26 @@
         <v>20</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>299</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -5363,15 +5364,17 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>301</v>
+        <v>138</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -5420,19 +5423,19 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>20</v>
@@ -5441,7 +5444,7 @@
         <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>20</v>
@@ -5465,7 +5468,7 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>170</v>
+        <v>307</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5478,24 +5481,26 @@
         <v>20</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
       </c>
@@ -5543,7 +5548,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5564,7 +5569,7 @@
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>305</v>
+        <v>135</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>20</v>
@@ -5581,33 +5586,33 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>311</v>
+        <v>20</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>312</v>
@@ -5616,11 +5621,9 @@
         <v>313</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>20</v>
       </c>
@@ -5644,13 +5647,13 @@
         <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>20</v>
+        <v>315</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>20</v>
+        <v>316</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>20</v>
@@ -5668,28 +5671,28 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>20</v>
+        <v>317</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>135</v>
+        <v>318</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>20</v>
@@ -5701,15 +5704,15 @@
         <v>20</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>20</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5732,17 +5735,15 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>112</v>
+        <v>321</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5767,31 +5768,31 @@
         <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>199</v>
+        <v>20</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>319</v>
+        <v>20</v>
       </c>
       <c r="Z31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>92</v>
@@ -5809,10 +5810,10 @@
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>20</v>
@@ -5824,15 +5825,15 @@
         <v>20</v>
       </c>
       <c r="AQ31" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5840,7 +5841,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>92</v>
@@ -5855,16 +5856,20 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
       </c>
@@ -5912,10 +5917,10 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>92</v>
@@ -5930,10 +5935,10 @@
         <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>328</v>
+        <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>20</v>
@@ -5942,18 +5947,18 @@
         <v>20</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>20</v>
+        <v>333</v>
       </c>
       <c r="AQ32" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5964,7 +5969,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
@@ -5976,19 +5981,19 @@
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -6013,13 +6018,13 @@
         <v>20</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>20</v>
+        <v>340</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>20</v>
+        <v>341</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>20</v>
@@ -6037,13 +6042,13 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
@@ -6055,30 +6060,30 @@
         <v>20</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>20</v>
+        <v>342</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>20</v>
+        <v>344</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6086,7 +6091,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>81</v>
@@ -6101,20 +6106,16 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>217</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>20</v>
       </c>
@@ -6138,34 +6139,34 @@
         <v>20</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>344</v>
+        <v>20</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>345</v>
+        <v>20</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>20</v>
+        <v>351</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>20</v>
+        <v>352</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>81</v>
@@ -6180,30 +6181,30 @@
         <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>348</v>
+        <v>20</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>349</v>
+        <v>20</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>350</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6211,11 +6212,11 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G35" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
       </c>
@@ -6223,16 +6224,16 @@
         <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>353</v>
+        <v>299</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6271,40 +6272,40 @@
         <v>20</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>354</v>
+        <v>20</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>355</v>
+        <v>20</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>356</v>
+        <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="AG35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH35" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AH35" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AI35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>357</v>
+        <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>358</v>
+        <v>301</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>20</v>
@@ -6321,10 +6322,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6335,7 +6336,7 @@
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
@@ -6347,13 +6348,13 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>301</v>
+        <v>138</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>302</v>
+        <v>139</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>303</v>
+        <v>140</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6392,31 +6393,29 @@
         <v>20</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>20</v>
@@ -6425,7 +6424,7 @@
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>305</v>
+        <v>20</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>20</v>
@@ -6442,14 +6441,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="D37" t="s" s="2">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6468,17 +6469,15 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>138</v>
+        <v>359</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>307</v>
+        <v>360</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -6527,7 +6526,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6536,7 +6535,7 @@
         <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>144</v>
@@ -6548,7 +6547,7 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>305</v>
+        <v>20</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>20</v>
@@ -6572,7 +6571,7 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6594,16 +6593,16 @@
         <v>138</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6652,7 +6651,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6794,7 +6793,7 @@
         <v>366</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>367</v>
@@ -6837,13 +6836,13 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6894,7 +6893,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6915,7 +6914,7 @@
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>20</v>
@@ -6939,7 +6938,7 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6961,13 +6960,13 @@
         <v>138</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7017,7 +7016,7 @@
         <v>142</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7038,7 +7037,7 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>20</v>
@@ -7116,7 +7115,7 @@
         <v>20</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Y42" t="s" s="2">
         <v>378</v>
@@ -7827,7 +7826,7 @@
         <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>425</v>
@@ -8153,7 +8152,7 @@
         <v>444</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>445</v>
@@ -8173,7 +8172,7 @@
         <v>447</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>448</v>
@@ -8198,13 +8197,13 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8255,7 +8254,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>92</v>
@@ -8273,10 +8272,10 @@
         <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>20</v>
@@ -8296,7 +8295,7 @@
         <v>449</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8319,13 +8318,13 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8376,7 +8375,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8397,7 +8396,7 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>20</v>
@@ -8417,11 +8416,11 @@
         <v>450</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8443,14 +8442,12 @@
         <v>138</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>307</v>
+        <v>139</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8487,19 +8484,17 @@
         <v>20</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="AC53" s="2"/>
       <c r="AD53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8520,7 +8515,7 @@
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>305</v>
+        <v>20</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>20</v>
@@ -8540,11 +8535,13 @@
         <v>451</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="D54" t="s" s="2">
-        <v>311</v>
+        <v>20</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8557,26 +8554,22 @@
         <v>20</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>138</v>
+        <v>359</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>20</v>
       </c>
@@ -8624,7 +8617,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8633,7 +8626,7 @@
         <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>144</v>
@@ -8645,7 +8638,7 @@
         <v>20</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>20</v>
@@ -8665,39 +8658,43 @@
         <v>452</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>453</v>
+        <v>138</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>364</v>
+        <v>308</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>20</v>
       </c>
@@ -8745,48 +8742,48 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>362</v>
+        <v>310</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>366</v>
+        <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>358</v>
+        <v>135</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>367</v>
+        <v>20</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>368</v>
+        <v>20</v>
       </c>
       <c r="AQ55" t="s" s="2">
-        <v>369</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8794,7 +8791,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>92</v>
@@ -8806,16 +8803,16 @@
         <v>20</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>301</v>
+        <v>454</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>302</v>
+        <v>364</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>303</v>
+        <v>365</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8866,10 +8863,10 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>304</v>
+        <v>362</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>92</v>
@@ -8878,28 +8875,28 @@
         <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>20</v>
+        <v>366</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>305</v>
+        <v>354</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>20</v>
+        <v>367</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>20</v>
+        <v>368</v>
       </c>
       <c r="AQ56" t="s" s="2">
-        <v>20</v>
+        <v>369</v>
       </c>
     </row>
     <row r="57">
@@ -8907,18 +8904,18 @@
         <v>455</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>20</v>
@@ -8930,17 +8927,15 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>138</v>
+        <v>297</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>20</v>
@@ -8977,31 +8972,31 @@
         <v>20</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>372</v>
+        <v>20</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>20</v>
@@ -9010,7 +9005,7 @@
         <v>20</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>20</v>
@@ -9030,18 +9025,18 @@
         <v>456</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>20</v>
@@ -9050,21 +9045,21 @@
         <v>20</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>374</v>
+        <v>303</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>20</v>
       </c>
@@ -9076,7 +9071,7 @@
         <v>20</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>377</v>
+        <v>20</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>20</v>
@@ -9088,43 +9083,43 @@
         <v>20</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>199</v>
+        <v>20</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>378</v>
+        <v>20</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>379</v>
+        <v>20</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>20</v>
+        <v>372</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>380</v>
+        <v>305</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>20</v>
@@ -9133,7 +9128,7 @@
         <v>20</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>381</v>
+        <v>301</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>20</v>
@@ -9142,7 +9137,7 @@
         <v>20</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>382</v>
+        <v>20</v>
       </c>
       <c r="AQ58" t="s" s="2">
         <v>20</v>
@@ -9153,7 +9148,7 @@
         <v>457</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9179,14 +9174,14 @@
         <v>112</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -9199,7 +9194,7 @@
         <v>20</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="U59" t="s" s="2">
         <v>20</v>
@@ -9211,13 +9206,13 @@
         <v>20</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>117</v>
+        <v>378</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>118</v>
+        <v>379</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>20</v>
@@ -9235,7 +9230,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9256,7 +9251,7 @@
         <v>20</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>20</v>
@@ -9265,7 +9260,7 @@
         <v>20</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>20</v>
+        <v>382</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>20</v>
@@ -9276,7 +9271,7 @@
         <v>458</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9296,22 +9291,20 @@
         <v>20</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>391</v>
+        <v>112</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -9324,7 +9317,7 @@
         <v>20</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>20</v>
+        <v>387</v>
       </c>
       <c r="U60" t="s" s="2">
         <v>20</v>
@@ -9336,13 +9329,13 @@
         <v>20</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>20</v>
@@ -9360,7 +9353,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9381,7 +9374,7 @@
         <v>20</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>20</v>
@@ -9390,7 +9383,7 @@
         <v>20</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>398</v>
+        <v>20</v>
       </c>
       <c r="AQ60" t="s" s="2">
         <v>20</v>
@@ -9401,7 +9394,7 @@
         <v>459</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9409,7 +9402,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>92</v>
@@ -9421,22 +9414,22 @@
         <v>20</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>20</v>
@@ -9449,7 +9442,7 @@
         <v>20</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>405</v>
+        <v>20</v>
       </c>
       <c r="U61" t="s" s="2">
         <v>20</v>
@@ -9485,7 +9478,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9506,7 +9499,7 @@
         <v>20</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>20</v>
@@ -9515,7 +9508,7 @@
         <v>20</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="AQ61" t="s" s="2">
         <v>20</v>
@@ -9526,7 +9519,7 @@
         <v>460</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9534,7 +9527,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>92</v>
@@ -9549,19 +9542,19 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>20</v>
@@ -9574,7 +9567,7 @@
         <v>20</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>20</v>
+        <v>405</v>
       </c>
       <c r="U62" t="s" s="2">
         <v>20</v>
@@ -9610,7 +9603,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9631,7 +9624,7 @@
         <v>20</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>20</v>
@@ -9640,7 +9633,7 @@
         <v>20</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>20</v>
+        <v>408</v>
       </c>
       <c r="AQ62" t="s" s="2">
         <v>20</v>
@@ -9651,7 +9644,7 @@
         <v>461</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9674,19 +9667,19 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>20</v>
@@ -9735,7 +9728,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9756,7 +9749,7 @@
         <v>20</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>20</v>
@@ -9776,7 +9769,7 @@
         <v>462</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9799,17 +9792,19 @@
         <v>93</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>301</v>
+        <v>391</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O64" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -9822,7 +9817,7 @@
         <v>20</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>428</v>
+        <v>20</v>
       </c>
       <c r="U64" t="s" s="2">
         <v>20</v>
@@ -9858,7 +9853,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9879,7 +9874,7 @@
         <v>20</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>20</v>
@@ -9899,7 +9894,7 @@
         <v>463</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9922,17 +9917,17 @@
         <v>93</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>432</v>
+        <v>297</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>20</v>
@@ -9945,7 +9940,7 @@
         <v>20</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>20</v>
+        <v>428</v>
       </c>
       <c r="U65" t="s" s="2">
         <v>20</v>
@@ -9981,7 +9976,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10002,7 +9997,7 @@
         <v>20</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>20</v>
@@ -10022,7 +10017,7 @@
         <v>464</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10045,18 +10040,18 @@
         <v>93</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>20</v>
       </c>
@@ -10080,13 +10075,13 @@
         <v>20</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>442</v>
+        <v>20</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>443</v>
+        <v>20</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>20</v>
@@ -10104,7 +10099,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10122,13 +10117,13 @@
         <v>20</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>444</v>
+        <v>20</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>358</v>
+        <v>416</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>445</v>
+        <v>20</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>20</v>
@@ -10137,7 +10132,7 @@
         <v>20</v>
       </c>
       <c r="AQ66" t="s" s="2">
-        <v>446</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
@@ -10145,7 +10140,7 @@
         <v>465</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>465</v>
+        <v>437</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10168,16 +10163,16 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>293</v>
+        <v>438</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>466</v>
+        <v>439</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10203,13 +10198,13 @@
         <v>20</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>20</v>
+        <v>442</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>20</v>
+        <v>443</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>20</v>
@@ -10227,7 +10222,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>465</v>
+        <v>437</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10245,13 +10240,13 @@
         <v>20</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>20</v>
+        <v>444</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>469</v>
+        <v>354</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>20</v>
+        <v>445</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>20</v>
@@ -10260,15 +10255,15 @@
         <v>20</v>
       </c>
       <c r="AQ67" t="s" s="2">
-        <v>20</v>
+        <v>446</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10288,18 +10283,20 @@
         <v>20</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>302</v>
+        <v>467</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>20</v>
@@ -10348,7 +10345,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>304</v>
+        <v>466</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10360,7 +10357,7 @@
         <v>20</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>20</v>
@@ -10369,7 +10366,7 @@
         <v>20</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>305</v>
+        <v>470</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>20</v>
@@ -10393,14 +10390,14 @@
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>20</v>
@@ -10412,17 +10409,15 @@
         <v>20</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>138</v>
+        <v>297</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>20</v>
@@ -10471,19 +10466,19 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>20</v>
@@ -10492,7 +10487,7 @@
         <v>20</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>20</v>
@@ -10516,7 +10511,7 @@
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>311</v>
+        <v>166</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10529,26 +10524,24 @@
         <v>20</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>20</v>
       </c>
@@ -10596,7 +10589,7 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10617,7 +10610,7 @@
         <v>20</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>135</v>
+        <v>301</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>20</v>
@@ -10641,7 +10634,7 @@
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10654,22 +10647,26 @@
         <v>20</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>474</v>
+        <v>138</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>475</v>
+        <v>308</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>20</v>
       </c>
@@ -10717,7 +10714,7 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>473</v>
+        <v>310</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10729,22 +10726,22 @@
         <v>20</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>477</v>
+        <v>20</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>478</v>
+        <v>20</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>479</v>
+        <v>135</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>480</v>
+        <v>20</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>20</v>
@@ -10755,10 +10752,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10781,17 +10778,15 @@
         <v>20</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>217</v>
+        <v>475</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>20</v>
@@ -10816,13 +10811,13 @@
         <v>20</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>485</v>
+        <v>20</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>486</v>
+        <v>20</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>20</v>
@@ -10840,7 +10835,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10855,33 +10850,33 @@
         <v>104</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>20</v>
+        <v>478</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>20</v>
+        <v>481</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AQ72" t="s" s="2">
-        <v>489</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10892,7 +10887,7 @@
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>20</v>
@@ -10901,18 +10896,20 @@
         <v>20</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>491</v>
+        <v>213</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>20</v>
@@ -10937,13 +10934,13 @@
         <v>20</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>20</v>
+        <v>231</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>20</v>
+        <v>486</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>20</v>
+        <v>487</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>20</v>
@@ -10961,13 +10958,13 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>20</v>
@@ -10979,13 +10976,13 @@
         <v>20</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>496</v>
+        <v>20</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>20</v>
@@ -10994,15 +10991,15 @@
         <v>20</v>
       </c>
       <c r="AQ73" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11022,16 +11019,16 @@
         <v>20</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>217</v>
+        <v>492</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11058,13 +11055,13 @@
         <v>20</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>501</v>
+        <v>20</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>502</v>
+        <v>20</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>20</v>
@@ -11082,7 +11079,7 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11100,13 +11097,13 @@
         <v>20</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>20</v>
@@ -11115,15 +11112,15 @@
         <v>20</v>
       </c>
       <c r="AQ74" t="s" s="2">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11146,20 +11143,16 @@
         <v>20</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>511</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>20</v>
       </c>
@@ -11183,13 +11176,13 @@
         <v>20</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>20</v>
@@ -11207,7 +11200,7 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11225,13 +11218,13 @@
         <v>20</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>20</v>
@@ -11240,15 +11233,15 @@
         <v>20</v>
       </c>
       <c r="AQ75" t="s" s="2">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11271,16 +11264,20 @@
         <v>20</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>516</v>
+        <v>213</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+        <v>510</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>20</v>
       </c>
@@ -11304,13 +11301,13 @@
         <v>20</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>20</v>
+        <v>231</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>20</v>
+        <v>513</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>20</v>
+        <v>514</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>20</v>
@@ -11328,7 +11325,7 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11346,13 +11343,13 @@
         <v>20</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>247</v>
+        <v>504</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>248</v>
+        <v>505</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>249</v>
+        <v>504</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>20</v>
@@ -11361,15 +11358,15 @@
         <v>20</v>
       </c>
       <c r="AQ76" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11380,7 +11377,7 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>20</v>
@@ -11392,17 +11389,15 @@
         <v>20</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>524</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>20</v>
@@ -11451,13 +11446,13 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>20</v>
@@ -11469,22 +11464,145 @@
         <v>20</v>
       </c>
       <c r="AL77" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ77" t="s" s="2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="N78" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="AM77" t="s" s="2">
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="AN77" t="s" s="2">
+      <c r="AM78" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="AO77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ77" t="s" s="2">
+      <c r="AN78" t="s" s="2">
         <v>528</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ78" t="s" s="2">
+        <v>529</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ncpi-drs-file.xlsx
+++ b/StructureDefinition-ncpi-drs-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:06:27+00:00</t>
+    <t>2025-07-22T19:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-file.xlsx
+++ b/StructureDefinition-ncpi-drs-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:44:39+00:00</t>
+    <t>2025-08-11T13:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-file.xlsx
+++ b/StructureDefinition-ncpi-drs-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:46:00+00:00</t>
+    <t>2025-08-11T15:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>92</v>

--- a/StructureDefinition-ncpi-drs-file.xlsx
+++ b/StructureDefinition-ncpi-drs-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T15:03:48+00:00</t>
+    <t>2025-08-12T16:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-file.xlsx
+++ b/StructureDefinition-ncpi-drs-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:35:35+00:00</t>
+    <t>2025-08-12T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-file.xlsx
+++ b/StructureDefinition-ncpi-drs-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:41:46+00:00</t>
+    <t>2025-08-12T16:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-file.xlsx
+++ b/StructureDefinition-ncpi-drs-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:58:49+00:00</t>
+    <t>2025-08-12T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-file.xlsx
+++ b/StructureDefinition-ncpi-drs-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T17:45:57+00:00</t>
+    <t>2025-08-12T18:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-file.xlsx
+++ b/StructureDefinition-ncpi-drs-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T18:02:45+00:00</t>
+    <t>2025-08-26T23:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
